--- a/catalogusdata/Concepten/Regressietest/Volledige datasets/Testdata concepten O.xlsx
+++ b/catalogusdata/Concepten/Regressietest/Volledige datasets/Testdata concepten O.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\lwortel\Documents\Klussen\Kadaster\Deliveries\bp4mc2\catalogusdata\Concepten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\lwortel\Documents\Klussen\Kadaster\Deliveries\bp4mc2\catalogusdata\Concepten\Regressietest\Volledige datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="URI schema" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="152">
   <si>
     <t>tabblad</t>
   </si>
@@ -110,18 +110,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>domein</t>
-  </si>
-  <si>
-    <t>inScheme</t>
-  </si>
-  <si>
-    <t>Domein</t>
-  </si>
-  <si>
-    <t>Dataset</t>
-  </si>
-  <si>
     <t>scopeNote</t>
   </si>
   <si>
@@ -216,9 +204,6 @@
   </si>
   <si>
     <t>Deel van een beest</t>
-  </si>
-  <si>
-    <t>testDomein</t>
   </si>
   <si>
     <t>generiekDier</t>
@@ -500,7 +485,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -574,11 +559,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -586,7 +570,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -688,6 +671,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -723,6 +723,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -898,10 +915,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -987,7 +1004,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -1001,10 +1018,10 @@
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1015,176 +1032,176 @@
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
         <v>78</v>
       </c>
-      <c r="B17" t="s">
-        <v>83</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B18" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1252,24 +1269,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1"/>
-    <hyperlink ref="D6" r:id="rId2" location="{eigenschap}"/>
-    <hyperlink ref="D11" r:id="rId3" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{specialisatie}"/>
-    <hyperlink ref="D12" r:id="rId4" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{generalisatie}"/>
-    <hyperlink ref="D13" r:id="rId5" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{onderdeel}"/>
-    <hyperlink ref="D14" r:id="rId6" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{bestaatuit}"/>
-    <hyperlink ref="D15" r:id="rId7" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{betrekkingop}"/>
-    <hyperlink ref="D16" r:id="rId8" display="http://localhost:8080/catalogus/dso/id/collection/{collectie}"/>
-    <hyperlink ref="D17" r:id="rId9" display="http://localhost:8080/dsoprogramma/id/begrip/{begrip}"/>
-    <hyperlink ref="D8" r:id="rId10" display="http://localhost:8080/dsoprogramma/id/begrip/{begrip}"/>
-    <hyperlink ref="D7" r:id="rId11" location="{eigenschap}"/>
-    <hyperlink ref="D2" r:id="rId12" location="{klasse}"/>
-    <hyperlink ref="D9" r:id="rId13" location="{subklasse}"/>
-    <hyperlink ref="D10" r:id="rId14" display="http://localhost:8080/catalogus/dso/id/concept/{bron}"/>
-    <hyperlink ref="D21" r:id="rId15"/>
-    <hyperlink ref="D20" r:id="rId16" display="http://localhost:8080/catalogus/dso/id/concept/{bron}"/>
-    <hyperlink ref="D18" r:id="rId17" display="http://localhost:8080/catalogus/dso/id/collection/{waardelijst}"/>
-    <hyperlink ref="D19" r:id="rId18" display="http://localhost:8080/catalogus/dso/id/collection/{collectie}"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D6" r:id="rId2" location="{eigenschap}" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D11" r:id="rId3" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{specialisatie}" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D12" r:id="rId4" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{generalisatie}" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D13" r:id="rId5" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{onderdeel}" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D14" r:id="rId6" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{bestaatuit}" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D15" r:id="rId7" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{betrekkingop}" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D16" r:id="rId8" display="http://localhost:8080/catalogus/dso/id/collection/{collectie}" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D17" r:id="rId9" display="http://localhost:8080/dsoprogramma/id/begrip/{begrip}" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D8" r:id="rId10" display="http://localhost:8080/dsoprogramma/id/begrip/{begrip}" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D7" r:id="rId11" location="{eigenschap}" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D2" r:id="rId12" location="{klasse}" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D9" r:id="rId13" location="{subklasse}" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D10" r:id="rId14" display="http://localhost:8080/catalogus/dso/id/concept/{bron}" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D21" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D20" r:id="rId16" display="http://localhost:8080/catalogus/dso/id/concept/{bron}" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D18" r:id="rId17" display="http://localhost:8080/catalogus/dso/id/collection/{waardelijst}" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D19" r:id="rId18" display="http://localhost:8080/catalogus/dso/id/collection/{collectie}" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
@@ -1277,11 +1294,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1314,26 +1331,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>103</v>
+    <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -1353,10 +1370,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1373,10 +1390,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -1393,36 +1410,33 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
@@ -1430,440 +1444,372 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
         <v>41</v>
       </c>
       <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
         <v>42</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>43</v>
-      </c>
-      <c r="E10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
         <v>45</v>
       </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>46</v>
-      </c>
-      <c r="E11" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
         <v>48</v>
       </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>49</v>
-      </c>
-      <c r="E12" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
         <v>51</v>
       </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>52</v>
-      </c>
-      <c r="E13" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="D16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C15" t="s">
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="D18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="C19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E20" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="9" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D21" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E21" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="9" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="9" t="s">
+      <c r="D23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="C24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C23" s="9" t="s">
+      <c r="D25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="9" t="s">
+      <c r="D27" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E27" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-    </row>
-    <row r="52" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52"/>
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52"/>
-      <c r="E52"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="48" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1872,566 +1818,482 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="60" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="8" width="17.28515625" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="28.85546875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" customWidth="1"/>
-    <col min="12" max="12" width="28" style="5" customWidth="1"/>
-    <col min="13" max="13" width="32" customWidth="1"/>
+    <col min="3" max="3" width="60" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" customWidth="1"/>
+    <col min="11" max="11" width="28" style="4" customWidth="1"/>
+    <col min="12" max="12" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="8">
+        <v>36892</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G5" s="8">
+        <v>36892</v>
+      </c>
+      <c r="J5" t="s">
+        <v>112</v>
+      </c>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="8">
+        <v>36892</v>
+      </c>
+      <c r="J7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="8">
+        <v>36892</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="8">
+        <v>42736</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="L9" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="8">
+        <v>42736</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="9">
+        <v>36892</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" t="s">
-        <v>108</v>
-      </c>
-      <c r="H2" s="10">
-        <v>36892</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="L2" s="5"/>
-      <c r="M2" t="s">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="7" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="10">
-        <v>36892</v>
-      </c>
-      <c r="K5" t="s">
-        <v>117</v>
-      </c>
-      <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="10">
-        <v>1</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="M6" s="5"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="10">
-        <v>36892</v>
-      </c>
-      <c r="K7" t="s">
-        <v>117</v>
-      </c>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="10">
-        <v>36892</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" s="10">
-        <v>42736</v>
-      </c>
-      <c r="J9" s="5" t="s">
+      <c r="I14" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="M9" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="B21" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="10">
-        <v>42736</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="11">
-        <v>36892</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="K13" s="9"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>130</v>
-      </c>
-      <c r="B14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="J14" s="5" t="s">
+      <c r="I22" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="K14" s="9"/>
-      <c r="M14" s="9"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>135</v>
-      </c>
-      <c r="B15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="K15" s="9"/>
-      <c r="M15" s="9"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>132</v>
-      </c>
-      <c r="B16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="K17" s="9"/>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>131</v>
-      </c>
-      <c r="B18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="K18" s="9"/>
-      <c r="M18" s="5"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>136</v>
-      </c>
-      <c r="B19" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="K19" s="9"/>
-      <c r="M19" s="5"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>133</v>
-      </c>
-      <c r="B20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M20" s="5"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="K21" s="9"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>138</v>
-      </c>
-      <c r="B22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="K22" s="9"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>137</v>
-      </c>
-      <c r="B23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="K23" s="9"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>134</v>
-      </c>
-      <c r="B24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M24" s="5"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="3"/>
-      <c r="M29" s="5"/>
-    </row>
-    <row r="30" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="3"/>
-      <c r="M30" s="5"/>
-    </row>
-    <row r="31" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="D32" s="7"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="D33" s="3"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="29" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2440,319 +2302,258 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="4" width="27.85546875" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="10">
+        <v>71</v>
+      </c>
+      <c r="C2" s="8">
         <v>36892</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="8">
+        <v>36892</v>
+      </c>
+      <c r="D3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="8">
+        <v>36892</v>
+      </c>
+      <c r="D4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="8">
+        <v>36892</v>
+      </c>
+      <c r="D5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="8">
+        <v>42736</v>
+      </c>
+      <c r="D6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="10">
-        <v>36892</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="8">
+        <v>42736</v>
+      </c>
+      <c r="D7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="8">
+        <v>42736</v>
+      </c>
+      <c r="D8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="10">
-        <v>36892</v>
-      </c>
-      <c r="E4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="10">
-        <v>36892</v>
-      </c>
-      <c r="E5" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="10">
-        <v>42736</v>
-      </c>
-      <c r="E6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="10">
-        <v>42736</v>
-      </c>
-      <c r="E7" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="10">
-        <v>42736</v>
-      </c>
-      <c r="E8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="D20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" t="s">
-        <v>137</v>
+        <v>88</v>
+      </c>
+      <c r="D21" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2762,59 +2563,53 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="10"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="10"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="10"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="10"/>
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2823,11 +2618,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2835,49 +2630,39 @@
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>64</v>
+        <v>105</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
